--- a/data/PIT_2018.xlsx
+++ b/data/PIT_2018.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC50"/>
+  <dimension ref="A1:AF50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,6 +579,21 @@
           <t>Unnamed: 28</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Ties</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -718,6 +733,15 @@
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -861,6 +885,15 @@
         </is>
       </c>
       <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1004,6 +1037,15 @@
         </is>
       </c>
       <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1143,6 +1185,15 @@
       </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1286,6 +1337,15 @@
         </is>
       </c>
       <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1425,6 +1485,15 @@
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1568,6 +1637,15 @@
         </is>
       </c>
       <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1707,6 +1785,15 @@
       </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1850,6 +1937,15 @@
         </is>
       </c>
       <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1993,6 +2089,15 @@
         </is>
       </c>
       <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2136,6 +2241,15 @@
         </is>
       </c>
       <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2279,6 +2393,15 @@
         </is>
       </c>
       <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2422,6 +2545,15 @@
         </is>
       </c>
       <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2565,6 +2697,15 @@
         </is>
       </c>
       <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2708,6 +2849,15 @@
         </is>
       </c>
       <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2847,6 +2997,15 @@
       </c>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2986,6 +3145,15 @@
       </c>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3129,6 +3297,15 @@
         </is>
       </c>
       <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3268,6 +3445,15 @@
       </c>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3407,6 +3593,15 @@
       </c>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3550,6 +3745,15 @@
         </is>
       </c>
       <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3689,6 +3893,15 @@
       </c>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3832,6 +4045,15 @@
         </is>
       </c>
       <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3971,6 +4193,15 @@
       </c>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4110,6 +4341,15 @@
       </c>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4253,6 +4493,15 @@
         </is>
       </c>
       <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4392,6 +4641,15 @@
       </c>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4531,6 +4789,15 @@
       </c>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4674,6 +4941,15 @@
         </is>
       </c>
       <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4817,6 +5093,15 @@
         </is>
       </c>
       <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4956,6 +5241,15 @@
       </c>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5099,6 +5393,15 @@
         </is>
       </c>
       <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5242,6 +5545,15 @@
         </is>
       </c>
       <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5381,6 +5693,15 @@
       </c>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5524,6 +5845,15 @@
         </is>
       </c>
       <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5663,6 +5993,15 @@
       </c>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5806,6 +6145,15 @@
         </is>
       </c>
       <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5945,6 +6293,15 @@
       </c>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6084,6 +6441,15 @@
       </c>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6227,6 +6593,15 @@
         </is>
       </c>
       <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6366,6 +6741,15 @@
       </c>
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6505,6 +6889,15 @@
       </c>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6648,6 +7041,15 @@
         </is>
       </c>
       <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6791,6 +7193,15 @@
         </is>
       </c>
       <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6930,6 +7341,15 @@
       </c>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7069,6 +7489,15 @@
       </c>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7216,6 +7645,15 @@
           <t>All-Star</t>
         </is>
       </c>
+      <c r="AD48" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7359,6 +7797,15 @@
         </is>
       </c>
       <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7498,6 +7945,15 @@
         </is>
       </c>
       <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
